--- a/Dataemployee_data.xlsx
+++ b/Dataemployee_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -131,31 +131,34 @@
     <t>admin</t>
   </si>
   <si>
+    <t>fcea920f7412b5da7be0cf42b8c93759</t>
+  </si>
+  <si>
+    <t>Trương quốc huy</t>
+  </si>
+  <si>
+    <t>huy@gmail.com</t>
+  </si>
+  <si>
+    <t>22 Lê trọng tấn</t>
+  </si>
+  <si>
+    <t>091111455</t>
+  </si>
+  <si>
+    <t>huy2222</t>
+  </si>
+  <si>
     <t>e10adc3949ba59abbe56e057f20f883e</t>
   </si>
   <si>
-    <t>Trương quốc huy</t>
-  </si>
-  <si>
-    <t>huy@gmail.com</t>
-  </si>
-  <si>
-    <t>22 Lê trọng tấn</t>
-  </si>
-  <si>
-    <t>091111455</t>
-  </si>
-  <si>
-    <t>huy2222</t>
-  </si>
-  <si>
     <t>Vương kim dinh</t>
   </si>
   <si>
     <t>2002-01-02</t>
   </si>
   <si>
-    <t>v</t>
+    <t>VanTho2011@gmail.com</t>
   </si>
   <si>
     <t>266 Nguyễn trí thanh TPHCM</t>
@@ -282,6 +285,33 @@
   </si>
   <si>
     <t>e557b1212cf885ec98a4e21c379eaac5</t>
+  </si>
+  <si>
+    <t>Trần thị nai</t>
+  </si>
+  <si>
+    <t>1990-01-01</t>
+  </si>
+  <si>
+    <t>Nathi@gmail.com</t>
+  </si>
+  <si>
+    <t>412 Trần hưng đạo</t>
+  </si>
+  <si>
+    <t>johndoe</t>
+  </si>
+  <si>
+    <t>e35cf7b66449df565f93c607d5a81d09</t>
+  </si>
+  <si>
+    <t>Nguyễn minh thư</t>
+  </si>
+  <si>
+    <t>2000-06-13</t>
+  </si>
+  <si>
+    <t>vnn159357@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -621,7 +651,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,7 +857,7 @@
         <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -841,28 +871,28 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7">
-        <v>123456</v>
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
       </c>
       <c r="I7">
         <v>4</v>
@@ -871,33 +901,33 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>3</v>
@@ -906,33 +936,33 @@
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <v>4</v>
@@ -941,33 +971,33 @@
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F10">
         <v>21244441</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -976,33 +1006,33 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1011,33 +1041,33 @@
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -1046,33 +1076,33 @@
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -1081,6 +1111,76 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14">
+        <v>123456789</v>
+      </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
         <v>18</v>
       </c>
     </row>
